--- a/programme-pre-v8.xlsx
+++ b/programme-pre-v8.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\program-manager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbc\Dropbox\investigacion\congresos\SPLC2017\Program\PRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -887,62 +887,93 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="70" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="72">
+    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - Accent3 2" xfId="68"/>
     <cellStyle name="20% - Accent3 3" xfId="70"/>
-    <cellStyle name="20% - Énfasis3" xfId="2" builtinId="38"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo 10" xfId="21"/>
     <cellStyle name="Hipervínculo 11" xfId="23"/>
     <cellStyle name="Hipervínculo 12" xfId="25"/>
@@ -975,37 +1006,6 @@
     <cellStyle name="Hipervínculo 7" xfId="15"/>
     <cellStyle name="Hipervínculo 8" xfId="17"/>
     <cellStyle name="Hipervínculo 9" xfId="19"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="3"/>
@@ -1390,28 +1390,28 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="3" max="3" width="20.265625" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1425,17 +1425,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1449,17 +1449,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-    </row>
-    <row r="7" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1473,17 +1473,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-    </row>
-    <row r="9" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>125</v>
       </c>
@@ -1524,28 +1524,28 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" customWidth="1"/>
+    <col min="4" max="4" width="24.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1559,17 +1559,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-    </row>
-    <row r="5" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1583,17 +1583,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1607,17 +1607,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-    </row>
-    <row r="9" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1652,17 +1652,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="87.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="3" max="3" width="87.73046875" customWidth="1"/>
+    <col min="4" max="4" width="47.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1805,11 +1805,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="48" t="s">
         <v>143</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1825,7 +1825,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="19" t="s">
         <v>128</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="20" t="s">
         <v>128</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
         <v>51</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
         <v>62</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
         <v>62</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="14" t="s">
         <v>62</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="22" t="s">
         <v>62</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
         <v>62</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>62</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>62</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
         <v>62</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
         <v>62</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
         <v>62</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
         <v>62</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
         <v>62</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
         <v>62</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="11" t="s">
         <v>62</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
         <v>62</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="11" t="s">
         <v>62</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
         <v>86</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="14" t="s">
         <v>86</v>
       </c>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
         <v>86</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="14" t="s">
         <v>86</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="14" t="s">
         <v>86</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="14" t="s">
         <v>86</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="14" t="s">
         <v>86</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="30" t="s">
         <v>51</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="30" t="s">
         <v>51</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="30" t="s">
         <v>51</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="30" t="s">
         <v>51</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="28" t="s">
         <v>51</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="28" t="s">
         <v>51</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="30" t="s">
         <v>51</v>
       </c>
@@ -2463,30 +2463,30 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="8"/>
-    <col min="2" max="2" width="18.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.73046875" style="8"/>
+    <col min="2" max="2" width="18.86328125" style="8" customWidth="1"/>
     <col min="3" max="3" width="23" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="8"/>
+    <col min="4" max="4" width="21.86328125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="10.73046875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-    </row>
-    <row r="3" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+    </row>
+    <row r="3" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2498,17 +2498,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-    </row>
-    <row r="5" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+    </row>
+    <row r="5" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2520,17 +2520,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-    </row>
-    <row r="7" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="7" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2544,17 +2544,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-    </row>
-    <row r="9" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>0.77083333333333304</v>
       </c>

--- a/programme-pre-v8.xlsx
+++ b/programme-pre-v8.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbc\Dropbox\investigacion\congresos\SPLC2017\Program\PRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\program-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -887,6 +887,9 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="70" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -935,45 +938,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="72">
-    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - Accent3 2" xfId="68"/>
     <cellStyle name="20% - Accent3 3" xfId="70"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="2" builtinId="38"/>
     <cellStyle name="Hipervínculo 10" xfId="21"/>
     <cellStyle name="Hipervínculo 11" xfId="23"/>
     <cellStyle name="Hipervínculo 12" xfId="25"/>
@@ -1006,6 +975,37 @@
     <cellStyle name="Hipervínculo 7" xfId="15"/>
     <cellStyle name="Hipervínculo 8" xfId="17"/>
     <cellStyle name="Hipervínculo 9" xfId="19"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="3"/>
@@ -1390,28 +1390,28 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.86328125" customWidth="1"/>
-    <col min="3" max="3" width="20.265625" customWidth="1"/>
-    <col min="4" max="4" width="23.59765625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="33" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1425,17 +1425,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1449,17 +1449,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-    </row>
-    <row r="7" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1473,17 +1473,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>125</v>
       </c>
@@ -1524,28 +1524,28 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.73046875" customWidth="1"/>
-    <col min="3" max="3" width="27.73046875" customWidth="1"/>
-    <col min="4" max="4" width="24.265625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="33" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1559,17 +1559,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-    </row>
-    <row r="5" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1583,17 +1583,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-    </row>
-    <row r="7" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1607,17 +1607,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1652,17 +1652,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="87.73046875" customWidth="1"/>
-    <col min="4" max="4" width="47.73046875" customWidth="1"/>
+    <col min="3" max="3" width="87.7109375" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1805,11 +1805,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="32" t="s">
         <v>143</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1825,7 +1825,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>128</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>128</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>51</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>62</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>62</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>62</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>62</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>62</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>62</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>62</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>62</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>62</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>62</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>62</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>62</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>62</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>62</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>62</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>62</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>86</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>86</v>
       </c>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>86</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>86</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>86</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>86</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>86</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>51</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>51</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>51</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>51</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>51</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>51</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>51</v>
       </c>
@@ -2463,30 +2463,30 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" style="8"/>
-    <col min="2" max="2" width="18.86328125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="8"/>
+    <col min="2" max="2" width="18.85546875" style="8" customWidth="1"/>
     <col min="3" max="3" width="23" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.86328125" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="10.73046875" style="8"/>
+    <col min="4" max="4" width="21.85546875" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="42" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="3" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+    </row>
+    <row r="3" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2498,17 +2498,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-    </row>
-    <row r="5" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+    </row>
+    <row r="5" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2520,17 +2520,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-    </row>
-    <row r="7" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+    </row>
+    <row r="7" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2544,17 +2544,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-    </row>
-    <row r="9" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+    </row>
+    <row r="9" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.77083333333333304</v>
       </c>
